--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2247685.477380495</v>
+        <v>-2250268.509450222</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>41.96425921496945</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>74.55681854025067</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>88.58584547962764</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>216.2522586711237</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>242.7840558312795</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>75.43406307983427</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>93.05572980479246</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>190.6364615562254</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>70.97585417237234</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>105.962660793583</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>53.54735467376837</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>143.8294614350713</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>14.19454216862572</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>26.13627195705837</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541513911</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>203.2455388444596</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>28.540049308893</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>251.2117044543517</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>70.04554881124358</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>108.5249257999854</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.34574348918471</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>90.14863908058098</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149755</v>
+        <v>171.0385136149756</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316661</v>
+        <v>158.4533545316662</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512506</v>
+        <v>139.8220064512507</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796074</v>
+        <v>137.6404960796075</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559695</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253071</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.5012462792622</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160376</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.09025687744031</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>172.2328194346829</v>
       </c>
       <c r="T28" t="n">
-        <v>200.6056834188322</v>
+        <v>208.6119837603266</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222824</v>
+        <v>277.3910078222825</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568662</v>
+        <v>243.3441767568663</v>
       </c>
       <c r="W28" t="n">
         <v>277.7295317696293</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220754</v>
+        <v>216.9161888220755</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.791186785133</v>
+        <v>209.7911867851331</v>
       </c>
     </row>
     <row r="29">
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002293</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,7 +3718,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
         <v>262.2383508445512</v>
@@ -3727,7 +3727,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1274.539111149739</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392158</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213861</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="3">
@@ -4398,13 +4398,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.9927684318073</v>
+        <v>163.837793613838</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4495,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068854</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.966238459644</v>
       </c>
       <c r="Q4" t="n">
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="W4" t="n">
-        <v>376.7853475753374</v>
+        <v>612.6199236553855</v>
       </c>
       <c r="X4" t="n">
-        <v>376.7853475753374</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.9927684318073</v>
+        <v>163.837793613838</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1582.86133602681</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1496.07259001514</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1137.80689140839</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1137.80689140839</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>726.8209866187824</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>311.7485364637789</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3249.409798296207</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3043.432050680429</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3043.432050680429</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2712.369163336858</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2359.600508066744</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2359.600508066744</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y5" t="n">
-        <v>1969.461176090932</v>
+        <v>2251.634947019674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,7 +4647,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,31 +4662,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4723,52 +4723,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452385</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>609.2899331452385</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>515.2942464737309</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>515.2942464737309</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>287.3046955757135</v>
+        <v>728.3249234381592</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>507.5323442946291</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591601078694</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>626.5279106829112</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>215.5420058933036</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649821</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379707</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118627</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142816</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>866.7987687739744</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>866.7987687739744</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>645.0321533435005</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>355.929286469144</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="V10" t="n">
-        <v>355.929286469144</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W10" t="n">
-        <v>66.5121164321834</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5018,73 +5018,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057246</v>
+        <v>1030.91837829389</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>861.9821953659833</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>711.8655559536476</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>563.9524623712545</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>417.0625148733441</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>249.866415588224</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>108.1545844304221</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1433.35942226766</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1433.35942226766</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>1212.56684312413</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,31 +5288,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.8410298377091</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782999</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038386</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>1991.764021402259</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1702.688794746457</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.688794746457</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.4894946679489</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="17">
@@ -5501,43 +5501,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2233.355914590559</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2567.28068676178</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>3062.606292977539</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3659.984780604091</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>3659.984780604091</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575529</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057241</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778172</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654815</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830883</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>343.099465685178</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977511</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.2677182139843</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C22" t="n">
-        <v>530.3315352860774</v>
+        <v>853.5941094450259</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860774</v>
+        <v>703.4774700326901</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036843</v>
+        <v>555.564376450297</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057739</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057739</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X22" t="n">
-        <v>1101.708762187754</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y22" t="n">
-        <v>880.916183044224</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,19 +6069,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057246</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778177</v>
+        <v>853.5941094450257</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654819</v>
+        <v>703.4774700326899</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830888</v>
+        <v>555.5643764502968</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851784</v>
+        <v>408.6744289523864</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369644</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6315,13 +6315,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>903.6615923362594</v>
+        <v>666.9652522820993</v>
       </c>
       <c r="C28" t="n">
-        <v>743.6076988699301</v>
+        <v>506.9113588157699</v>
       </c>
       <c r="D28" t="n">
-        <v>602.3733489191719</v>
+        <v>365.6770088650115</v>
       </c>
       <c r="E28" t="n">
-        <v>463.3425447983562</v>
+        <v>226.6462047441959</v>
       </c>
       <c r="F28" t="n">
-        <v>325.3348867620234</v>
+        <v>226.6462047441959</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0210769384807</v>
+        <v>226.6462047441959</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384807</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795879</v>
+        <v>182.7582133795877</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064185</v>
+        <v>453.1530078064182</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836508</v>
+        <v>852.2571338836503</v>
       </c>
       <c r="M28" t="n">
         <v>1282.972368515977</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077278</v>
+        <v>1709.087772077277</v>
       </c>
       <c r="O28" t="n">
         <v>2087.322584687555</v>
@@ -6406,28 +6406,28 @@
         <v>2516.607338790597</v>
       </c>
       <c r="R28" t="n">
-        <v>2516.607338790597</v>
+        <v>2461.970715682071</v>
       </c>
       <c r="S28" t="n">
-        <v>2516.607338790597</v>
+        <v>2287.998170798553</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.975335337231</v>
+        <v>2077.278995283071</v>
       </c>
       <c r="U28" t="n">
-        <v>2033.782398143007</v>
+        <v>1797.086058088847</v>
       </c>
       <c r="V28" t="n">
-        <v>1787.980199398697</v>
+        <v>1551.283859344537</v>
       </c>
       <c r="W28" t="n">
-        <v>1507.445318823314</v>
+        <v>1270.748978769154</v>
       </c>
       <c r="X28" t="n">
-        <v>1288.338057386874</v>
+        <v>1051.641717332714</v>
       </c>
       <c r="Y28" t="n">
-        <v>1076.427767704922</v>
+        <v>839.7314276507616</v>
       </c>
     </row>
     <row r="29">
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6625,7 +6625,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,37 +6634,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6689,22 +6689,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6725,22 +6725,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,28 +6871,28 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6901,7 +6901,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684976</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.288144095049</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319313</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656807</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150013</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942644</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345467</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384011</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,31 +7096,31 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532431</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,7 +7172,7 @@
         <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075822</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397181</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380725</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123343</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,13 +7597,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,7 +7722,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>323.3086325560381</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>280.1262230804323</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>78.6609756190002</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -22762,13 +22762,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>70.27073966546735</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>67.07129414993982</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.8900140445862</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>127.7255247667982</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.15991148282871</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>257.6444250803511</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.9259388694762992</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>117.1847295890517</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.4862366927526</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>75.37549921168787</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.6275814559696</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>156.7306717253072</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792621</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160384</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315992</v>
+        <v>3.49152326571968</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346828</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>8.006300341494324</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1367219.153606069</v>
+        <v>1367219.153606068</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1367219.153606068</v>
+        <v>1367219.153606069</v>
       </c>
     </row>
     <row r="9">
@@ -26317,43 +26317,43 @@
         <v>61578.13273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="H2" t="n">
         <v>60535.99497675043</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675042</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>60913.35287666378</v>
+        <v>60913.3528766638</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>224565.9756508469</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006236</v>
+        <v>12392.94474006232</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569407</v>
+        <v>7034.773253569301</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006236</v>
+        <v>12392.94474006248</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="F4" t="n">
+        <v>16046.58397189196</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="H4" t="n">
         <v>16046.58397189199</v>
       </c>
-      <c r="G4" t="n">
-        <v>16046.58397189193</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.583971892</v>
-      </c>
       <c r="I4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="J4" t="n">
-        <v>18940.07269946532</v>
+        <v>18940.07269946528</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="L4" t="n">
+        <v>24037.4432349855</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24037.44323498546</v>
+      </c>
+      <c r="N4" t="n">
         <v>24037.44323498545</v>
       </c>
-      <c r="M4" t="n">
-        <v>24037.44323498545</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24037.44323498547</v>
-      </c>
       <c r="O4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498542</v>
       </c>
       <c r="P4" t="n">
         <v>24037.44323498545</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1387907.18667268</v>
+        <v>-1388314.586210496</v>
       </c>
       <c r="C6" t="n">
-        <v>-139952.5519256246</v>
+        <v>-139952.5519256245</v>
       </c>
       <c r="D6" t="n">
         <v>-139952.5519256246</v>
       </c>
       <c r="E6" t="n">
-        <v>-382045.5806264041</v>
+        <v>-382080.3185518395</v>
       </c>
       <c r="F6" t="n">
-        <v>-56633.11881904867</v>
+        <v>-56667.85674448432</v>
       </c>
       <c r="G6" t="n">
-        <v>-56633.11881904863</v>
+        <v>-56667.85674448433</v>
       </c>
       <c r="H6" t="n">
-        <v>-56633.11881904868</v>
+        <v>-56667.85674448436</v>
       </c>
       <c r="I6" t="n">
-        <v>-56633.11881904869</v>
+        <v>-56667.85674448435</v>
       </c>
       <c r="J6" t="n">
-        <v>-284454.4832383734</v>
+        <v>-284476.6425671453</v>
       </c>
       <c r="K6" t="n">
-        <v>-78016.37108914193</v>
+        <v>-78016.3710891419</v>
       </c>
       <c r="L6" t="n">
-        <v>-65623.42634907959</v>
+        <v>-65623.42634907964</v>
       </c>
       <c r="M6" t="n">
         <v>-150678.4542845915</v>
       </c>
       <c r="N6" t="n">
-        <v>-65623.42634907959</v>
+        <v>-65623.42634907961</v>
       </c>
       <c r="O6" t="n">
-        <v>-72658.19960264899</v>
+        <v>-72658.19960264888</v>
       </c>
       <c r="P6" t="n">
-        <v>-78016.37108914196</v>
+        <v>-78016.37108914208</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507795</v>
+        <v>15.49118092507804</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961758</v>
+        <v>8.793466566961627</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507795</v>
+        <v>15.4911809250781</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507795</v>
+        <v>15.49118092507804</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>51.82370855604097</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>33.75369870834157</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>159.0819135190355</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>35.07319383281174</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>294.2970375986352</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>304.9590648598704</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>35.38479799627896</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>142.3823767705416</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.882028738240887e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.192202140984591e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961769</v>
+        <v>8.793466566961694</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>491.5977325265315</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511227</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>483.3274636075133</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,22 +32789,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>556.532545233504</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33497,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>258.3858318060507</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33734,10 +33734,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473071</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>614.5900475587109</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742437</v>
@@ -33892,10 +33892,10 @@
         <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817591</v>
       </c>
       <c r="L38" t="n">
         <v>867.8464071162559</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>578.1083652167728</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742437</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>402.2342772868849</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>602.4605829984181</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>349.0014880820871</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295761</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060442</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>340.7312191630689</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>425.1908331501707</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991513</v>
+        <v>89.83994982991506</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765967</v>
+        <v>273.1260549765966</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860932</v>
+        <v>403.1354808860931</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680069</v>
+        <v>435.0658935680068</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568692</v>
+        <v>430.4195995568691</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730072</v>
+        <v>382.0553662730071</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735867</v>
+        <v>304.4252398735866</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668601</v>
+        <v>129.19572386686</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,16 +36990,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980851</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>120.5443928316917</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674329</v>
@@ -37397,16 +37397,16 @@
         <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>471.9938031142665</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
@@ -37476,13 +37476,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396436</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678995</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>446.7666531334394</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>263.6798975070108</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37944,16 +37944,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>471.1188709150848</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
